--- a/CERP/Summary_Data.xlsx
+++ b/CERP/Summary_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Levine\Documents\Git working\Oyster-Reports\CERP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Levine\Documents\GitHub\Monthly-Reports\CERP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE802F8-6822-4E4F-9A55-FB922E9E53FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92452F2B-F0DB-4B57-8CE4-CD23114D5F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13650,7 +13650,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BM22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17915,7 +17917,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19642,7 +19646,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BH22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="BG8" activeCellId="14" sqref="Z8:AA10 AC8:AC10 AE8:AE10 AG8:AH10 AJ8:AJ10 AL8:AL10 AN8:AO10 AQ8:AQ10 AS8:AS10 AU8:AV10 AX8:AX10 AZ8:AZ10 BB8:BC10 BE8:BE10 BG8:BG10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -25651,7 +25657,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:CN22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8:AT10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
